--- a/grades/links.xlsx
+++ b/grades/links.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t xml:space="preserve">znamka v pololeti</t>
+  </si>
   <si>
     <t xml:space="preserve">Beran Jaroslav</t>
   </si>
@@ -43,6 +46,12 @@
     <t xml:space="preserve">Degen Jan</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan_Degen__projekt_2023_zprava_FINALE.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Sky3R/projekt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hlásný Gabriel-Max</t>
   </si>
   <si>
@@ -62,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jindra Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">závěrečná zpráva Josef Jindra.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Hurbixcz/Smart-cup/blob/main/Smartcup..m</t>
   </si>
   <si>
     <t xml:space="preserve">Mikl Tomáš</t>
@@ -134,11 +149,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,6 +170,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF954F72"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,8 +229,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,6 +251,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF954F72"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -220,53 +319,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="48.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="71.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -274,10 +384,13 @@
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -285,85 +398,135 @@
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://github.com/Sky3R/projekt/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/grades/links.xlsx
+++ b/grades/links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">znamka v pololeti</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Beran Jaroslav</t>
   </si>
   <si>
+    <t xml:space="preserve">03 -  nabíjecí stanice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beran Jaroslav nabíjecí stanice.docx</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t xml:space="preserve">Beran Karel</t>
   </si>
   <si>
+    <t xml:space="preserve">08 - fitness tracker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beran_Karel_2023.docx</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t xml:space="preserve">Degen Jan</t>
   </si>
   <si>
+    <t xml:space="preserve">09 - Smart Lampička</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jan_Degen__projekt_2023_zprava_FINALE.docx</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t xml:space="preserve">Hlásný Gabriel-Max</t>
   </si>
   <si>
+    <t xml:space="preserve">13 - Detekce přítomnosti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hlasny_Gabriel-Max_projekt_2023.docx</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
     <t xml:space="preserve">Mikl Tomáš</t>
   </si>
   <si>
+    <t xml:space="preserve">07 - GPS Tracker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tomáš_Mikl_projekt_2023_final.docx</t>
   </si>
   <si>
@@ -91,6 +106,9 @@
     <t xml:space="preserve">Palkin Zoltan</t>
   </si>
   <si>
+    <t xml:space="preserve">10 - Meteostanice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palkin_Zoltan_Meteostanice.docx</t>
   </si>
   <si>
@@ -100,6 +118,9 @@
     <t xml:space="preserve">Pelant Jiří</t>
   </si>
   <si>
+    <t xml:space="preserve">02 - Robot s dockovací stanicí</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pelant_Jiří_Robot s dokovací stanicí_2023.docx</t>
   </si>
   <si>
@@ -109,6 +130,9 @@
     <t xml:space="preserve">Šebová Lucie</t>
   </si>
   <si>
+    <t xml:space="preserve">05 - RGB led pásek s webovým rozhraním</t>
+  </si>
+  <si>
     <t xml:space="preserve">Šebová_Lucie_Projekt_2023.docx</t>
   </si>
   <si>
@@ -118,6 +142,9 @@
     <t xml:space="preserve">Števula Lukáš</t>
   </si>
   <si>
+    <t xml:space="preserve">11 - Napaječka hospodářských zvířat s ochranou proti mrazu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lukáš_Števula__projekt_2023_Finale.docx</t>
   </si>
   <si>
@@ -125,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vokálek Tomáš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 - dezinfekční stanice</t>
   </si>
   <si>
     <t xml:space="preserve">Vokálek_Tomáš_ dezinfekční stanice_2023.docx</t>
@@ -319,18 +349,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="71.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="36.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="71.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,181 +381,208 @@
       <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://github.com/Sky3R/projekt/"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://github.com/Sky3R/projekt/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/grades/links.xlsx
+++ b/grades/links.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">znamka v pololeti</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">Ištvánik Vojtěch</t>
   </si>
   <si>
+    <t xml:space="preserve">00 – chytrý úl</t>
+  </si>
+  <si>
     <t xml:space="preserve">závěrečná zpráva vojtěch Ištvánik.docx</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t xml:space="preserve">Jindra Josef</t>
   </si>
   <si>
+    <t xml:space="preserve">00 – chytrý hrnek</t>
+  </si>
+  <si>
     <t xml:space="preserve">závěrečná zpráva Josef Jindra.docx</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zedník Matěj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 – smart garden</t>
   </si>
   <si>
     <t xml:space="preserve">Zednik_Matej_Smart_Garden_Zaverecna Zprava.docx</t>
@@ -352,7 +361,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,141 +452,150 @@
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>50</v>
+      </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/grades/links.xlsx
+++ b/grades/links.xlsx
@@ -213,8 +213,8 @@
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -360,13 +360,13 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="36.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="71.08"/>
